--- a/02_data/plantas.xlsx
+++ b/02_data/plantas.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\111_Ale\02_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\111_Ale\not_opticliente\02_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6591E6C2-74DF-4CF1-B615-C5A0F3BA4594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0876D00-ACB6-43BB-A6E1-884465DC950B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2460" windowWidth="11952" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="708" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plantas" sheetId="1" r:id="rId1"/>
-    <sheet name="consumo_plantas" sheetId="2" r:id="rId2"/>
-    <sheet name="parametros_planta" sheetId="3" r:id="rId3"/>
+    <sheet name="parametros_planta" sheetId="3" r:id="rId2"/>
+    <sheet name="consumo_plantas" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
-  <si>
-    <t>id_planta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
   <si>
     <t>nombre_planta</t>
   </si>
@@ -47,27 +44,9 @@
     <t>planta1</t>
   </si>
   <si>
-    <t>especie</t>
-  </si>
-  <si>
-    <t>corteza</t>
-  </si>
-  <si>
     <t>volumen_consumo</t>
   </si>
   <si>
-    <t>EUNI</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>EUGL</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
     <t>capacidad</t>
   </si>
   <si>
@@ -77,10 +56,25 @@
     <t>stock_inicial</t>
   </si>
   <si>
-    <t>id_plantatipo</t>
-  </si>
-  <si>
     <t>mes_planificado</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>EUNI SC</t>
+  </si>
+  <si>
+    <t>EUGL SC</t>
+  </si>
+  <si>
+    <t>EUNI CC</t>
+  </si>
+  <si>
+    <t>EUGL CC</t>
+  </si>
+  <si>
+    <t>planta2</t>
   </si>
 </sst>
 </file>
@@ -123,12 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,16 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -426,15 +417,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -443,240 +458,108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BD7730-13F4-40A8-8AD1-428C184EC871}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D2885-C82C-4467-A6A3-FD5850ECA55B}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -684,145 +567,215 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D2885-C82C-4467-A6A3-FD5850ECA55B}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BD7730-13F4-40A8-8AD1-428C184EC871}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02_data/plantas.xlsx
+++ b/02_data/plantas.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\111_Ale\not_opticliente\02_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0876D00-ACB6-43BB-A6E1-884465DC950B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E634E6E5-E709-482B-819A-5B4DB780D7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="708" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plantas" sheetId="1" r:id="rId1"/>
     <sheet name="parametros_planta" sheetId="3" r:id="rId2"/>
-    <sheet name="consumo_plantas" sheetId="2" r:id="rId3"/>
+    <sheet name="consumo_plantas" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>nombre_planta</t>
   </si>
@@ -44,9 +44,6 @@
     <t>planta1</t>
   </si>
   <si>
-    <t>volumen_consumo</t>
-  </si>
-  <si>
     <t>capacidad</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>stock_inicial</t>
   </si>
   <si>
-    <t>mes_planificado</t>
-  </si>
-  <si>
     <t>producto</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
   </si>
   <si>
     <t>EUGL CC</t>
-  </si>
-  <si>
-    <t>planta2</t>
   </si>
 </sst>
 </file>
@@ -402,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -417,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -425,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -433,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -441,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -449,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -461,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D2885-C82C-4467-A6A3-FD5850ECA55B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -477,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -494,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>40</v>
@@ -511,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -528,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -545,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -567,49 +558,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BD7730-13F4-40A8-8AD1-428C184EC871}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110F975A-E5C2-4F72-A41B-E7ED1A4CA417}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -617,27 +666,87 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -645,135 +754,39 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
         <v>100</v>
       </c>
     </row>

--- a/02_data/plantas.xlsx
+++ b/02_data/plantas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\111_Ale\not_opticliente\02_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E634E6E5-E709-482B-819A-5B4DB780D7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD90C7A8-A826-4455-ABC6-4E3B8A54BE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>capacidad</t>
   </si>
   <si>
-    <t>stock_seguridad_planta</t>
-  </si>
-  <si>
     <t>stock_inicial</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>EUGL CC</t>
+  </si>
+  <si>
+    <t>stock_ideal_planta</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -453,7 +453,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>40</v>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -519,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>100</v>

--- a/02_data/plantas.xlsx
+++ b/02_data/plantas.xlsx
@@ -5,19 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ext.alejandra.gonzal\Desktop\Opti-cliente\Algoritmo y web\Python\Nuevo_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ext.alejandra.gonzal\Desktop\Opti-cliente\Algoritmo y web\Python\Nuevo_input\reducido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5D96E4-2B3E-47CF-B229-58CC1A13E27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF094A1E-3C2E-448F-A862-69B6F9F55095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parametros_planta" sheetId="2" r:id="rId1"/>
     <sheet name="consumo_plantas" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="gmM/PmqH209YEaqzyhC9zXWQvIFDzI//Ozem7xd+Ywk="/>
     </ext>
@@ -26,27 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>nombre_planta</t>
   </si>
   <si>
     <t>producto</t>
-  </si>
-  <si>
-    <t>planta1</t>
-  </si>
-  <si>
-    <t>EUNI SC</t>
-  </si>
-  <si>
-    <t>EUNI CC</t>
-  </si>
-  <si>
-    <t>EUGL SC</t>
-  </si>
-  <si>
-    <t>EUGL CC</t>
   </si>
   <si>
     <t>capacidad</t>
@@ -70,18 +66,37 @@
     <t>Almacenes</t>
   </si>
   <si>
-    <t>Produccion</t>
+    <t>Nueva_aldea</t>
+  </si>
+  <si>
+    <t>Arauco</t>
+  </si>
+  <si>
+    <t>EUNI</t>
+  </si>
+  <si>
+    <t>EUGL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,9 +116,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,24 +143,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares [0] 2" xfId="1" xr:uid="{21552D4E-57FB-4273-A378-AB08443C4519}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,22 +385,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" customWidth="1"/>
+    <col min="2" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="6" customWidth="1"/>
+    <col min="5" max="6" width="18.6328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" style="6" customWidth="1"/>
     <col min="9" max="28" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -381,132 +410,129 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14170</v>
+      </c>
+      <c r="D2" s="3">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>7</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.34</v>
+      <c r="F2" s="3">
+        <v>1700</v>
       </c>
       <c r="G2" s="1">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14800</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>38269</v>
+      </c>
+      <c r="D3" s="3">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>7</v>
       </c>
-      <c r="F3" s="1">
-        <v>1.36</v>
+      <c r="F3" s="3">
+        <v>3960</v>
       </c>
       <c r="G3" s="1">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>35600</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.79</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>58943</v>
+      </c>
+      <c r="D4" s="6">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3860</v>
       </c>
       <c r="G4" s="1">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>76000</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.17</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>176829</v>
+      </c>
+      <c r="D5" s="6">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>11568</v>
       </c>
       <c r="G5" s="1">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>214000</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1497,11 +1523,8 @@
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -1509,9 +1532,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N989"/>
+  <dimension ref="A1:R985"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1519,7 +1544,7 @@
     <col min="2" max="26" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1562,194 +1587,345 @@
       <c r="N1" s="3">
         <v>12</v>
       </c>
+      <c r="O1" s="7">
+        <v>13</v>
+      </c>
+      <c r="P1" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7">
+        <v>15</v>
+      </c>
+      <c r="R1" s="7">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10">
+        <v>47302.788269762132</v>
+      </c>
+      <c r="D2" s="10">
+        <v>51390.813901438363</v>
+      </c>
+      <c r="E2" s="10">
+        <v>49733.045711069382</v>
+      </c>
+      <c r="F2" s="10">
+        <v>51390.813901438363</v>
+      </c>
+      <c r="G2" s="10">
+        <v>51390.813901438363</v>
+      </c>
+      <c r="H2" s="10">
+        <v>46417.509330331421</v>
+      </c>
+      <c r="I2" s="10">
+        <v>50147.487758661613</v>
+      </c>
+      <c r="J2" s="10">
+        <v>49733.045711069382</v>
+      </c>
+      <c r="K2" s="10">
+        <v>51390.813901438363</v>
+      </c>
+      <c r="L2" s="10">
+        <v>29837</v>
+      </c>
+      <c r="M2" s="10">
+        <v>50132.869619235069</v>
+      </c>
+      <c r="N2" s="10">
+        <v>50132.869619235069</v>
+      </c>
+      <c r="O2" s="10">
+        <v>47302.788269762132</v>
+      </c>
+      <c r="P2" s="10">
+        <v>51390.813901438363</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>49733.045711069382</v>
+      </c>
+      <c r="R2" s="10">
+        <v>51390.813901438363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10">
+        <v>110373.17262944496</v>
+      </c>
+      <c r="D3" s="10">
+        <v>119911.89910335618</v>
+      </c>
+      <c r="E3" s="10">
+        <v>116043.77332582854</v>
+      </c>
+      <c r="F3" s="10">
+        <v>119911.89910335618</v>
+      </c>
+      <c r="G3" s="10">
+        <v>119911.89910335618</v>
+      </c>
+      <c r="H3" s="10">
+        <v>108307.52177077331</v>
+      </c>
+      <c r="I3" s="10">
+        <v>117010.80477021044</v>
+      </c>
+      <c r="J3" s="10">
+        <v>116043.77332582854</v>
+      </c>
+      <c r="K3" s="10">
+        <v>119911.89910335618</v>
+      </c>
+      <c r="L3" s="10">
+        <v>69628</v>
+      </c>
+      <c r="M3" s="10">
+        <v>116976.69577821516</v>
+      </c>
+      <c r="N3" s="10">
+        <v>116976.69577821516</v>
+      </c>
+      <c r="O3" s="10">
+        <v>110373.17262944496</v>
+      </c>
+      <c r="P3" s="10">
+        <v>119911.89910335618</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>116043.77332582854</v>
+      </c>
+      <c r="R3" s="10">
+        <v>119911.89910335618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4">
+      <c r="C4" s="10">
+        <v>91875</v>
+      </c>
+      <c r="D4" s="10">
+        <v>100362.5</v>
+      </c>
+      <c r="E4" s="10">
+        <v>99225</v>
+      </c>
+      <c r="F4" s="10">
+        <v>107957.5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>108500</v>
+      </c>
+      <c r="H4" s="10">
+        <v>101500</v>
+      </c>
+      <c r="I4" s="10">
+        <v>75250</v>
+      </c>
+      <c r="J4" s="10">
+        <v>112875</v>
+      </c>
+      <c r="K4" s="10">
+        <v>116637.5</v>
+      </c>
+      <c r="L4" s="10">
+        <v>112875</v>
+      </c>
+      <c r="M4" s="10">
+        <v>116637.5</v>
+      </c>
+      <c r="N4" s="10">
+        <v>116637.5</v>
+      </c>
+      <c r="O4" s="10">
+        <v>112875</v>
+      </c>
+      <c r="P4" s="10">
+        <v>116637.5</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>112875</v>
+      </c>
+      <c r="R4" s="10">
+        <v>116637.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4">
-        <v>11</v>
-      </c>
-      <c r="J2" s="4">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4">
-        <v>9</v>
-      </c>
-      <c r="L2" s="4">
-        <v>10</v>
-      </c>
-      <c r="M2" s="4">
-        <v>10</v>
-      </c>
-      <c r="N2" s="4">
-        <v>10</v>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10">
+        <v>275625</v>
+      </c>
+      <c r="D5" s="10">
+        <v>301087.5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>297675</v>
+      </c>
+      <c r="F5" s="10">
+        <v>323872.5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>325500</v>
+      </c>
+      <c r="H5" s="10">
+        <v>304500</v>
+      </c>
+      <c r="I5" s="10">
+        <v>225750</v>
+      </c>
+      <c r="J5" s="10">
+        <v>338625</v>
+      </c>
+      <c r="K5" s="10">
+        <v>349912.5</v>
+      </c>
+      <c r="L5" s="10">
+        <v>338625</v>
+      </c>
+      <c r="M5" s="10">
+        <v>349912.5</v>
+      </c>
+      <c r="N5" s="10">
+        <v>349912.5</v>
+      </c>
+      <c r="O5" s="10">
+        <v>338625</v>
+      </c>
+      <c r="P5" s="10">
+        <v>349912.5</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>338625</v>
+      </c>
+      <c r="R5" s="10">
+        <v>349912.5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>38</v>
-      </c>
-      <c r="D3" s="4">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43</v>
-      </c>
-      <c r="F3" s="4">
-        <v>40</v>
-      </c>
-      <c r="G3" s="4">
-        <v>40</v>
-      </c>
-      <c r="H3" s="4">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4">
-        <v>43</v>
-      </c>
-      <c r="J3" s="4">
-        <v>40</v>
-      </c>
-      <c r="K3" s="4">
-        <v>38</v>
-      </c>
-      <c r="L3" s="4">
-        <v>41</v>
-      </c>
-      <c r="M3" s="4">
-        <v>40</v>
-      </c>
-      <c r="N3" s="4">
-        <v>41</v>
-      </c>
+    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5">
-        <v>14.6</v>
-      </c>
-      <c r="E4" s="5">
-        <v>21.6</v>
-      </c>
-      <c r="F4" s="5">
-        <v>20.2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>20.8</v>
-      </c>
-      <c r="H4" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="I4" s="5">
-        <v>24.2</v>
-      </c>
-      <c r="J4" s="5">
-        <v>23.4</v>
-      </c>
-      <c r="K4" s="5">
-        <v>22</v>
-      </c>
-      <c r="L4" s="5">
-        <v>24</v>
-      </c>
-      <c r="M4" s="5">
-        <v>23.2</v>
-      </c>
-      <c r="N4" s="5">
-        <v>24</v>
-      </c>
+    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>80</v>
-      </c>
-      <c r="D5" s="5">
-        <v>58.4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>86.4</v>
-      </c>
-      <c r="F5" s="5">
-        <v>80.8</v>
-      </c>
-      <c r="G5" s="5">
-        <v>83.2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>28.8</v>
-      </c>
-      <c r="I5" s="5">
-        <v>96.8</v>
-      </c>
-      <c r="J5" s="5">
-        <v>93.6</v>
-      </c>
-      <c r="K5" s="5">
-        <v>88</v>
-      </c>
-      <c r="L5" s="5">
-        <v>96</v>
-      </c>
-      <c r="M5" s="5">
-        <v>92.8</v>
-      </c>
-      <c r="N5" s="5">
-        <v>96</v>
-      </c>
+    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2719,10 +2895,6 @@
     <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
